--- a/eDNA/example_output/ASV_reads_filtered_out.xlsx
+++ b/eDNA/example_output/ASV_reads_filtered_out.xlsx
@@ -2037,22 +2037,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>307c55294ffe3b8aa46fce358d55590e</t>
+          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>unassigned</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>unassigned</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>unassigned</t>
         </is>
       </c>
       <c r="E42">
@@ -2070,6 +2070,9 @@
       <c r="I42">
         <v>0</v>
       </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
       <c r="L42">
         <v>0</v>
       </c>
@@ -2077,22 +2080,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
+          <t>307c55294ffe3b8aa46fce358d55590e</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E43">
@@ -2108,9 +2111,6 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
         <v>0</v>
       </c>
       <c r="L43">

--- a/eDNA/example_output/ASV_reads_filtered_out.xlsx
+++ b/eDNA/example_output/ASV_reads_filtered_out.xlsx
@@ -2037,22 +2037,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
+          <t>307c55294ffe3b8aa46fce358d55590e</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E42">
@@ -2070,9 +2070,6 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="L42">
         <v>0</v>
       </c>
@@ -2080,22 +2077,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>307c55294ffe3b8aa46fce358d55590e</t>
+          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>unassigned</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>unassigned</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>unassigned</t>
         </is>
       </c>
       <c r="E43">
@@ -2113,6 +2110,9 @@
       <c r="I43">
         <v>0</v>
       </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
       <c r="L43">
         <v>0</v>
       </c>
@@ -2593,22 +2593,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>975b1dbdc7405f6e27bf63893e91e0ed</t>
+          <t>5e733a21f67e541f28ed4bf4fe025044</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Centropristis striata</t>
+          <t>unassigned</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Black sea bass</t>
+          <t>unassigned</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Teleost Fish</t>
+          <t>unassigned</t>
         </is>
       </c>
       <c r="E55">
@@ -2636,22 +2636,22 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>5e733a21f67e541f28ed4bf4fe025044</t>
+          <t>975b1dbdc7405f6e27bf63893e91e0ed</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Centropristis striata</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Black sea bass</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E56">

--- a/eDNA/example_output/ASV_reads_filtered_out.xlsx
+++ b/eDNA/example_output/ASV_reads_filtered_out.xlsx
@@ -2037,22 +2037,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
+          <t>307c55294ffe3b8aa46fce358d55590e</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E42">
@@ -2070,9 +2070,6 @@
       <c r="I42">
         <v>0</v>
       </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
       <c r="L42">
         <v>0</v>
       </c>
@@ -2080,22 +2077,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>307c55294ffe3b8aa46fce358d55590e</t>
+          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
+          <t>unassigned</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>unassigned</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Human</t>
+          <t>unassigned</t>
         </is>
       </c>
       <c r="E43">
@@ -2111,6 +2108,9 @@
         <v>0</v>
       </c>
       <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
         <v>0</v>
       </c>
       <c r="L43">

--- a/eDNA/example_output/ASV_reads_filtered_out.xlsx
+++ b/eDNA/example_output/ASV_reads_filtered_out.xlsx
@@ -1234,16 +1234,6 @@
           <t>Cololabis saira</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Pacific Saury</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Teleost Fish</t>
-        </is>
-      </c>
       <c r="E23">
         <v>1424</v>
       </c>
@@ -1486,17 +1476,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>unassigned</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>unassigned</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>unassigned</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E29">
@@ -1999,17 +1979,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>unassigned</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>unassigned</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>unassigned</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E41">
@@ -2037,22 +2007,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>307c55294ffe3b8aa46fce358d55590e</t>
+          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Homo sapiens</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Human</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Human</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E42">
@@ -2070,6 +2030,9 @@
       <c r="I42">
         <v>0</v>
       </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
       <c r="L42">
         <v>0</v>
       </c>
@@ -2077,22 +2040,22 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>c0a3f3ed23f04247d92740a9502f8b57</t>
+          <t>307c55294ffe3b8aa46fce358d55590e</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Human</t>
         </is>
       </c>
       <c r="E43">
@@ -2110,9 +2073,6 @@
       <c r="I43">
         <v>0</v>
       </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
       <c r="L43">
         <v>0</v>
       </c>
@@ -2593,22 +2553,22 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>5e733a21f67e541f28ed4bf4fe025044</t>
+          <t>975b1dbdc7405f6e27bf63893e91e0ed</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Centropristis striata</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Black sea bass</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>unassigned</t>
+          <t>Teleost Fish</t>
         </is>
       </c>
       <c r="E55">
@@ -2636,22 +2596,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>975b1dbdc7405f6e27bf63893e91e0ed</t>
+          <t>5e733a21f67e541f28ed4bf4fe025044</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Centropristis striata</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Black sea bass</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Teleost Fish</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E56">
@@ -2813,17 +2763,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>unassigned</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>unassigned</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>unassigned</t>
+          <t>Unassigned</t>
         </is>
       </c>
       <c r="E60">
